--- a/notebooks/XGBoost/predictions_afr.xlsx
+++ b/notebooks/XGBoost/predictions_afr.xlsx
@@ -468,7 +468,7 @@
         <v>1.305</v>
       </c>
       <c r="D2" t="n">
-        <v>1.275318503379822</v>
+        <v>1.337920427322388</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>1.49</v>
       </c>
       <c r="D3" t="n">
-        <v>1.469692945480347</v>
+        <v>1.496572375297546</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>1.459</v>
       </c>
       <c r="D4" t="n">
-        <v>1.415623188018799</v>
+        <v>1.505865454673767</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>1.635</v>
       </c>
       <c r="D5" t="n">
-        <v>1.612054944038391</v>
+        <v>1.650961399078369</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>1.123</v>
       </c>
       <c r="D6" t="n">
-        <v>1.098971605300903</v>
+        <v>1.141619086265564</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>1.19</v>
       </c>
       <c r="D7" t="n">
-        <v>1.145975470542908</v>
+        <v>1.210875272750854</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>1.147</v>
       </c>
       <c r="D8" t="n">
-        <v>1.111574769020081</v>
+        <v>1.131332993507385</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>1.119</v>
       </c>
       <c r="D9" t="n">
-        <v>1.096717715263367</v>
+        <v>1.171207904815674</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>1.391</v>
       </c>
       <c r="D10" t="n">
-        <v>1.367309927940369</v>
+        <v>1.416334271430969</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>1.222</v>
       </c>
       <c r="D11" t="n">
-        <v>1.221252679824829</v>
+        <v>1.219371795654297</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>1.559</v>
       </c>
       <c r="D12" t="n">
-        <v>1.555920481681824</v>
+        <v>1.609597325325012</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>1.548</v>
       </c>
       <c r="D13" t="n">
-        <v>1.53696346282959</v>
+        <v>1.602985858917236</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>1.346</v>
       </c>
       <c r="D14" t="n">
-        <v>1.332572340965271</v>
+        <v>1.367660284042358</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>1.65</v>
       </c>
       <c r="D15" t="n">
-        <v>1.633915424346924</v>
+        <v>1.688226342201233</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>1.526</v>
       </c>
       <c r="D16" t="n">
-        <v>1.536721348762512</v>
+        <v>1.536739468574524</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>1.183</v>
       </c>
       <c r="D17" t="n">
-        <v>1.14680278301239</v>
+        <v>1.22214674949646</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         <v>1.339</v>
       </c>
       <c r="D18" t="n">
-        <v>1.32343327999115</v>
+        <v>1.339912414550781</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>1.666</v>
       </c>
       <c r="D19" t="n">
-        <v>1.673915266990662</v>
+        <v>1.665318131446838</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>1.34</v>
       </c>
       <c r="D20" t="n">
-        <v>1.350207209587097</v>
+        <v>1.328302979469299</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>1.221</v>
       </c>
       <c r="D21" t="n">
-        <v>1.223883628845215</v>
+        <v>1.263764500617981</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>1.473</v>
       </c>
       <c r="D22" t="n">
-        <v>1.446030735969543</v>
+        <v>1.526806235313416</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         <v>1.552</v>
       </c>
       <c r="D23" t="n">
-        <v>1.54552161693573</v>
+        <v>1.559346079826355</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         <v>1.532</v>
       </c>
       <c r="D24" t="n">
-        <v>1.522399187088013</v>
+        <v>1.535563826560974</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>1.436</v>
       </c>
       <c r="D25" t="n">
-        <v>1.390236616134644</v>
+        <v>1.440383791923523</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         <v>1.642</v>
       </c>
       <c r="D26" t="n">
-        <v>1.625663042068481</v>
+        <v>1.691486954689026</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         <v>1.262</v>
       </c>
       <c r="D27" t="n">
-        <v>1.249942421913147</v>
+        <v>1.282421827316284</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +884,7 @@
         <v>0.88</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9796000719070435</v>
+        <v>1.043367624282837</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +900,7 @@
         <v>1.233</v>
       </c>
       <c r="D29" t="n">
-        <v>1.229786992073059</v>
+        <v>1.190237760543823</v>
       </c>
     </row>
     <row r="30">
@@ -916,7 +916,7 @@
         <v>1.34</v>
       </c>
       <c r="D30" t="n">
-        <v>1.334446668624878</v>
+        <v>1.414074182510376</v>
       </c>
     </row>
     <row r="31">
@@ -932,7 +932,7 @@
         <v>1.352</v>
       </c>
       <c r="D31" t="n">
-        <v>1.330255150794983</v>
+        <v>1.313364624977112</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +948,7 @@
         <v>1.451</v>
       </c>
       <c r="D32" t="n">
-        <v>1.417123079299927</v>
+        <v>1.468117952346802</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         <v>1.913</v>
       </c>
       <c r="D33" t="n">
-        <v>1.892808437347412</v>
+        <v>1.895154356956482</v>
       </c>
     </row>
     <row r="34">
@@ -980,7 +980,7 @@
         <v>1.309</v>
       </c>
       <c r="D34" t="n">
-        <v>1.28370475769043</v>
+        <v>1.303429484367371</v>
       </c>
     </row>
     <row r="35">
@@ -996,7 +996,7 @@
         <v>1.257</v>
       </c>
       <c r="D35" t="n">
-        <v>1.253258347511292</v>
+        <v>1.310843110084534</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         <v>1.492</v>
       </c>
       <c r="D36" t="n">
-        <v>1.488415479660034</v>
+        <v>1.511179566383362</v>
       </c>
     </row>
     <row r="37">
@@ -1028,7 +1028,7 @@
         <v>1.495</v>
       </c>
       <c r="D37" t="n">
-        <v>1.482491731643677</v>
+        <v>1.523179531097412</v>
       </c>
     </row>
     <row r="38">
@@ -1044,7 +1044,7 @@
         <v>1.502</v>
       </c>
       <c r="D38" t="n">
-        <v>1.483186960220337</v>
+        <v>1.505324006080627</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         <v>1.171</v>
       </c>
       <c r="D39" t="n">
-        <v>1.130551815032959</v>
+        <v>1.205562710762024</v>
       </c>
     </row>
     <row r="40">
@@ -1076,7 +1076,7 @@
         <v>1.198</v>
       </c>
       <c r="D40" t="n">
-        <v>1.139629483222961</v>
+        <v>1.207499623298645</v>
       </c>
     </row>
     <row r="41">
@@ -1092,7 +1092,7 @@
         <v>1.527</v>
       </c>
       <c r="D41" t="n">
-        <v>1.514279723167419</v>
+        <v>1.551984786987305</v>
       </c>
     </row>
     <row r="42">
@@ -1108,7 +1108,7 @@
         <v>1.444</v>
       </c>
       <c r="D42" t="n">
-        <v>1.397580504417419</v>
+        <v>1.444979310035706</v>
       </c>
     </row>
     <row r="43">
@@ -1124,7 +1124,7 @@
         <v>1.305</v>
       </c>
       <c r="D43" t="n">
-        <v>1.276898980140686</v>
+        <v>1.342618823051453</v>
       </c>
     </row>
     <row r="44">
@@ -1140,7 +1140,7 @@
         <v>1.346</v>
       </c>
       <c r="D44" t="n">
-        <v>1.343623638153076</v>
+        <v>1.344926357269287</v>
       </c>
     </row>
     <row r="45">
@@ -1156,7 +1156,7 @@
         <v>2.03</v>
       </c>
       <c r="D45" t="n">
-        <v>1.97661030292511</v>
+        <v>2.062210559844971</v>
       </c>
     </row>
     <row r="46">
@@ -1172,7 +1172,7 @@
         <v>1.414</v>
       </c>
       <c r="D46" t="n">
-        <v>1.387482047080994</v>
+        <v>1.417647838592529</v>
       </c>
     </row>
     <row r="47">
@@ -1188,7 +1188,7 @@
         <v>1.597</v>
       </c>
       <c r="D47" t="n">
-        <v>1.579129457473755</v>
+        <v>1.68144166469574</v>
       </c>
     </row>
     <row r="48">
@@ -1204,7 +1204,7 @@
         <v>1.745</v>
       </c>
       <c r="D48" t="n">
-        <v>1.763770937919617</v>
+        <v>1.75649619102478</v>
       </c>
     </row>
     <row r="49">
@@ -1220,7 +1220,7 @@
         <v>1.806</v>
       </c>
       <c r="D49" t="n">
-        <v>1.820844769477844</v>
+        <v>1.850265264511108</v>
       </c>
     </row>
     <row r="50">
@@ -1236,7 +1236,7 @@
         <v>1.443</v>
       </c>
       <c r="D50" t="n">
-        <v>1.412224292755127</v>
+        <v>1.437607169151306</v>
       </c>
     </row>
     <row r="51">
@@ -1252,7 +1252,7 @@
         <v>1.534</v>
       </c>
       <c r="D51" t="n">
-        <v>1.5220787525177</v>
+        <v>1.555680394172668</v>
       </c>
     </row>
     <row r="52">
@@ -1268,7 +1268,7 @@
         <v>1.564</v>
       </c>
       <c r="D52" t="n">
-        <v>1.549799084663391</v>
+        <v>1.574738502502441</v>
       </c>
     </row>
     <row r="53">
@@ -1284,7 +1284,7 @@
         <v>1.419</v>
       </c>
       <c r="D53" t="n">
-        <v>1.370467305183411</v>
+        <v>1.43863046169281</v>
       </c>
     </row>
     <row r="54">
@@ -1300,7 +1300,7 @@
         <v>1.381</v>
       </c>
       <c r="D54" t="n">
-        <v>1.381602883338928</v>
+        <v>1.419756174087524</v>
       </c>
     </row>
     <row r="55">
@@ -1316,7 +1316,7 @@
         <v>1.047</v>
       </c>
       <c r="D55" t="n">
-        <v>1.047743082046509</v>
+        <v>1.051427006721497</v>
       </c>
     </row>
     <row r="56">
@@ -1332,7 +1332,7 @@
         <v>1.619</v>
       </c>
       <c r="D56" t="n">
-        <v>1.609984755516052</v>
+        <v>1.675428986549377</v>
       </c>
     </row>
     <row r="57">
@@ -1348,7 +1348,7 @@
         <v>1.52</v>
       </c>
       <c r="D57" t="n">
-        <v>1.532801985740662</v>
+        <v>1.558199286460876</v>
       </c>
     </row>
     <row r="58">
@@ -1364,7 +1364,7 @@
         <v>1.454</v>
       </c>
       <c r="D58" t="n">
-        <v>1.422977328300476</v>
+        <v>1.449138879776001</v>
       </c>
     </row>
     <row r="59">
@@ -1380,7 +1380,7 @@
         <v>2.442</v>
       </c>
       <c r="D59" t="n">
-        <v>2.415693759918213</v>
+        <v>2.468364238739014</v>
       </c>
     </row>
     <row r="60">
@@ -1396,7 +1396,7 @@
         <v>1.522</v>
       </c>
       <c r="D60" t="n">
-        <v>1.500132203102112</v>
+        <v>1.549134850502014</v>
       </c>
     </row>
     <row r="61">
@@ -1412,7 +1412,7 @@
         <v>1.272</v>
       </c>
       <c r="D61" t="n">
-        <v>1.266999483108521</v>
+        <v>1.281533241271973</v>
       </c>
     </row>
     <row r="62">
@@ -1428,7 +1428,7 @@
         <v>1.104</v>
       </c>
       <c r="D62" t="n">
-        <v>1.045825481414795</v>
+        <v>1.123420000076294</v>
       </c>
     </row>
     <row r="63">
@@ -1444,7 +1444,7 @@
         <v>1.33</v>
       </c>
       <c r="D63" t="n">
-        <v>1.315754532814026</v>
+        <v>1.33734405040741</v>
       </c>
     </row>
     <row r="64">
@@ -1460,7 +1460,7 @@
         <v>1.103</v>
       </c>
       <c r="D64" t="n">
-        <v>1.001529574394226</v>
+        <v>1.117717504501343</v>
       </c>
     </row>
     <row r="65">
@@ -1476,7 +1476,7 @@
         <v>1.736</v>
       </c>
       <c r="D65" t="n">
-        <v>1.712943077087402</v>
+        <v>1.766652464866638</v>
       </c>
     </row>
     <row r="66">
@@ -1492,7 +1492,7 @@
         <v>1.551</v>
       </c>
       <c r="D66" t="n">
-        <v>1.548911809921265</v>
+        <v>1.564565539360046</v>
       </c>
     </row>
     <row r="67">
@@ -1508,7 +1508,7 @@
         <v>1.033</v>
       </c>
       <c r="D67" t="n">
-        <v>1.047538161277771</v>
+        <v>1.051446795463562</v>
       </c>
     </row>
     <row r="68">
@@ -1524,7 +1524,7 @@
         <v>1.297</v>
       </c>
       <c r="D68" t="n">
-        <v>1.28336489200592</v>
+        <v>1.289890766143799</v>
       </c>
     </row>
     <row r="69">
@@ -1540,7 +1540,7 @@
         <v>1.207</v>
       </c>
       <c r="D69" t="n">
-        <v>1.153416872024536</v>
+        <v>1.223431825637817</v>
       </c>
     </row>
     <row r="70">
@@ -1556,7 +1556,7 @@
         <v>1.278</v>
       </c>
       <c r="D70" t="n">
-        <v>1.257796406745911</v>
+        <v>1.288987755775452</v>
       </c>
     </row>
     <row r="71">
@@ -1572,7 +1572,7 @@
         <v>1.189</v>
       </c>
       <c r="D71" t="n">
-        <v>1.156667709350586</v>
+        <v>1.215021848678589</v>
       </c>
     </row>
     <row r="72">
@@ -1588,7 +1588,7 @@
         <v>1.179</v>
       </c>
       <c r="D72" t="n">
-        <v>1.123445630073547</v>
+        <v>1.138929486274719</v>
       </c>
     </row>
     <row r="73">
@@ -1604,7 +1604,7 @@
         <v>1.72</v>
       </c>
       <c r="D73" t="n">
-        <v>1.718961358070374</v>
+        <v>1.717436552047729</v>
       </c>
     </row>
     <row r="74">
@@ -1620,7 +1620,7 @@
         <v>1.399</v>
       </c>
       <c r="D74" t="n">
-        <v>1.378654718399048</v>
+        <v>1.43440854549408</v>
       </c>
     </row>
     <row r="75">
@@ -1636,7 +1636,7 @@
         <v>1.34</v>
       </c>
       <c r="D75" t="n">
-        <v>1.314018368721008</v>
+        <v>1.331917881965637</v>
       </c>
     </row>
     <row r="76">
@@ -1652,7 +1652,7 @@
         <v>1.463</v>
       </c>
       <c r="D76" t="n">
-        <v>1.432162642478943</v>
+        <v>1.520125508308411</v>
       </c>
     </row>
     <row r="77">
@@ -1668,7 +1668,7 @@
         <v>1.659</v>
       </c>
       <c r="D77" t="n">
-        <v>1.643678903579712</v>
+        <v>1.661167144775391</v>
       </c>
     </row>
     <row r="78">
@@ -1684,7 +1684,7 @@
         <v>1.471</v>
       </c>
       <c r="D78" t="n">
-        <v>1.43131959438324</v>
+        <v>1.452638626098633</v>
       </c>
     </row>
     <row r="79">
@@ -1700,7 +1700,7 @@
         <v>2.66</v>
       </c>
       <c r="D79" t="n">
-        <v>2.584352731704712</v>
+        <v>2.570323944091797</v>
       </c>
     </row>
     <row r="80">
@@ -1716,7 +1716,7 @@
         <v>1.402</v>
       </c>
       <c r="D80" t="n">
-        <v>1.380971193313599</v>
+        <v>1.424128174781799</v>
       </c>
     </row>
     <row r="81">
@@ -1732,7 +1732,7 @@
         <v>1.68</v>
       </c>
       <c r="D81" t="n">
-        <v>1.686162233352661</v>
+        <v>1.657158374786377</v>
       </c>
     </row>
     <row r="82">
@@ -1748,7 +1748,7 @@
         <v>1.946</v>
       </c>
       <c r="D82" t="n">
-        <v>1.929945468902588</v>
+        <v>1.927667737007141</v>
       </c>
     </row>
     <row r="83">
@@ -1764,7 +1764,7 @@
         <v>1.316</v>
       </c>
       <c r="D83" t="n">
-        <v>1.305664420127869</v>
+        <v>1.318983793258667</v>
       </c>
     </row>
     <row r="84">
@@ -1780,7 +1780,7 @@
         <v>1.424</v>
       </c>
       <c r="D84" t="n">
-        <v>1.406164884567261</v>
+        <v>1.415760040283203</v>
       </c>
     </row>
     <row r="85">
@@ -1796,7 +1796,7 @@
         <v>1.257</v>
       </c>
       <c r="D85" t="n">
-        <v>1.255955457687378</v>
+        <v>1.277809023857117</v>
       </c>
     </row>
     <row r="86">
@@ -1812,7 +1812,7 @@
         <v>0.976</v>
       </c>
       <c r="D86" t="n">
-        <v>1.051259756088257</v>
+        <v>1.071721196174622</v>
       </c>
     </row>
   </sheetData>
